--- a/PrivateSamples/TestingData.xlsx
+++ b/PrivateSamples/TestingData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanaeljenkins/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanaeljenkins/Documents/Personal/NathanaelJ.github.io/PrivateSamples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A522DD3A-8B7E-EA40-83CD-D856A326693E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F5EF4-357E-DD44-9536-DE0081B0A66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26240" xr2:uid="{93C42E23-E6D1-2F4A-B312-CFA696BE8C10}"/>
   </bookViews>
@@ -153,9 +153,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="186">
   <si>
-    <t>UROP Testing Data</t>
-  </si>
-  <si>
     <t>Nathanael Jenkins</t>
   </si>
   <si>
@@ -709,6 +706,9 @@
   </si>
   <si>
     <t>Compiler comparison (Stack-based C++)</t>
+  </si>
+  <si>
+    <t>UROP Testing Data (Summarised)</t>
   </si>
 </sst>
 </file>
@@ -1024,65 +1024,20 @@
     <xf numFmtId="3" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="16" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1102,20 +1057,65 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11501,32 +11501,32 @@
   <dimension ref="B2:W251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
+      <c r="B2" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -11541,7 +11541,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -11559,52 +11559,52 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5">
         <v>248</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="85" t="s">
+      <c r="H9" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="87" t="s">
-        <v>16</v>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="72" t="s">
+        <v>15</v>
       </c>
       <c r="L9" s="5"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5">
         <v>248</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="7">
         <v>1</v>
       </c>
@@ -11614,22 +11614,22 @@
       <c r="J10" s="7">
         <v>3</v>
       </c>
-      <c r="K10" s="88"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="5"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <v>10000</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="9">
@@ -11648,20 +11648,20 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5">
         <v>0.25</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="9">
         <v>39.566000000000003</v>
@@ -11679,20 +11679,20 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5">
         <v>2500</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="9">
         <v>35.747</v>
@@ -11710,17 +11710,17 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="13">
@@ -11742,13 +11742,13 @@
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="13">
         <v>23.771000000000001</v>
@@ -11767,17 +11767,17 @@
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16" s="15">
         <v>24.184999999999999</v>
@@ -11796,14 +11796,14 @@
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13">
@@ -11823,17 +11823,17 @@
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="G18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" s="13">
         <v>99.74</v>
@@ -11854,13 +11854,13 @@
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="G19" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19" s="13">
         <v>99.24</v>
@@ -11881,10 +11881,10 @@
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="13">
@@ -11906,13 +11906,13 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21" s="13">
         <v>99.61</v>
@@ -11933,13 +11933,13 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22" s="13">
         <v>103.03</v>
@@ -11960,10 +11960,10 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9">
@@ -11985,13 +11985,13 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H24" s="13">
         <v>105.4</v>
@@ -12012,13 +12012,13 @@
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25" s="13">
         <v>97.65</v>
@@ -12039,10 +12039,10 @@
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="13">
@@ -12064,13 +12064,13 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27" s="13">
         <v>101.69</v>
@@ -12091,13 +12091,13 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28" s="13">
         <v>100.22</v>
@@ -12128,7 +12128,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -12143,7 +12143,7 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -12171,42 +12171,42 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="1">
         <v>200</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="90" t="s">
+      <c r="E35" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="90" t="s">
+      <c r="G35" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="90" t="s">
+      <c r="H35" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="63" t="s">
         <v>15</v>
-      </c>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="92" t="s">
-        <v>16</v>
       </c>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1">
         <v>200</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
       <c r="H36" s="2">
         <v>1</v>
       </c>
@@ -12216,22 +12216,22 @@
       <c r="J36" s="2">
         <v>3</v>
       </c>
-      <c r="K36" s="93"/>
+      <c r="K36" s="64"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1">
         <v>1000</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
@@ -12251,17 +12251,17 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>0.25</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1">
@@ -12278,22 +12278,22 @@
         <v>10.666666666666666</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1">
         <v>2500</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1">
@@ -12313,20 +12313,20 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H40" s="1">
         <v>1.87</v>
@@ -12342,7 +12342,7 @@
         <v>1.8399999999999999</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -12350,13 +12350,13 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H41" s="1">
         <v>4.21</v>
@@ -12378,13 +12378,13 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H42" s="1">
         <v>2.19</v>
@@ -12406,10 +12406,10 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
@@ -12432,13 +12432,13 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H44" s="1">
         <v>2.88</v>
@@ -12470,7 +12470,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
@@ -12484,7 +12484,7 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
@@ -12501,58 +12501,58 @@
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="75"/>
+      <c r="I50" s="75"/>
+      <c r="J50" s="75"/>
       <c r="K50" s="19"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
-      <c r="E51" s="81" t="s">
+      <c r="E51" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="81" t="s">
+      <c r="G51" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="G51" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="81" t="s">
+      <c r="I51" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="I51" s="81" t="s">
+      <c r="J51" s="76" t="s">
         <v>49</v>
-      </c>
-      <c r="J51" s="81" t="s">
-        <v>50</v>
       </c>
       <c r="K51" s="19"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" s="19">
         <v>100</v>
       </c>
       <c r="D52" s="19"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="82"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="82"/>
-      <c r="J52" s="82"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
       <c r="K52" s="22"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="19">
         <v>0.25</v>
@@ -12566,13 +12566,13 @@
         <v>2500</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53" s="19">
         <v>0.17960000000000001</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J53" s="78">
         <f>H53/H54</f>
@@ -12582,7 +12582,7 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" s="19">
         <v>2500</v>
@@ -12596,13 +12596,13 @@
         <v>2500</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" s="19">
         <v>1.4E-2</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J54" s="79"/>
       <c r="K54" s="22">
@@ -12612,10 +12612,10 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19">
@@ -12626,15 +12626,15 @@
         <v>2500</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H55" s="19">
         <v>0.35260000000000002</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J55" s="77">
+        <v>50</v>
+      </c>
+      <c r="J55" s="74">
         <f>H55/H56</f>
         <v>13.561538461538463</v>
       </c>
@@ -12652,15 +12652,15 @@
         <v>2500</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H56" s="19">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J56" s="74"/>
       <c r="K56" s="22">
         <f t="shared" ref="K56:K76" si="2">1/J55</f>
         <v>7.3737946681792385E-2</v>
@@ -12678,15 +12678,15 @@
         <v>10000</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57" s="19">
         <v>0.1908</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J57" s="77">
+        <v>50</v>
+      </c>
+      <c r="J57" s="74">
         <f>H57/H58</f>
         <v>4.3363636363636369</v>
       </c>
@@ -12706,15 +12706,15 @@
         <v>10000</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H58" s="19">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J58" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J58" s="74"/>
       <c r="K58" s="22">
         <f t="shared" si="2"/>
         <v>0.23060796645702303</v>
@@ -12734,15 +12734,15 @@
         <v>10000</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H59" s="19">
         <v>0.48759999999999998</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J59" s="77">
+        <v>50</v>
+      </c>
+      <c r="J59" s="74">
         <f>H59/H60</f>
         <v>3.6388059701492534</v>
       </c>
@@ -12762,15 +12762,15 @@
         <v>10000</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H60" s="19">
         <v>0.13400000000000001</v>
       </c>
       <c r="I60" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J60" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J60" s="74"/>
       <c r="K60" s="22">
         <f t="shared" si="2"/>
         <v>0.27481542247744056</v>
@@ -12790,15 +12790,15 @@
         <v>40000</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H61" s="19">
         <v>0.2586</v>
       </c>
       <c r="I61" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J61" s="77">
+        <v>50</v>
+      </c>
+      <c r="J61" s="74">
         <f>H61/H62</f>
         <v>1.3596214511041009</v>
       </c>
@@ -12818,15 +12818,15 @@
         <v>40000</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H62" s="19">
         <v>0.19020000000000001</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J62" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J62" s="74"/>
       <c r="K62" s="22">
         <f t="shared" si="2"/>
         <v>0.73549883990719256</v>
@@ -12846,15 +12846,15 @@
         <v>40000</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H63" s="19">
         <v>0.92720000000000002</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J63" s="77">
+        <v>50</v>
+      </c>
+      <c r="J63" s="74">
         <f>H63/H64</f>
         <v>2.0967887833559478</v>
       </c>
@@ -12872,15 +12872,15 @@
         <v>40000</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H64" s="19">
         <v>0.44219999999999998</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J64" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J64" s="74"/>
       <c r="K64" s="22">
         <f t="shared" si="2"/>
         <v>0.47691975841242445</v>
@@ -12898,15 +12898,15 @@
         <v>160000</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H65" s="19">
         <v>1.1053999999999999</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J65" s="77">
+        <v>50</v>
+      </c>
+      <c r="J65" s="74">
         <f>H65/H66</f>
         <v>0.82124814264487356</v>
       </c>
@@ -12924,15 +12924,15 @@
         <v>160000</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H66" s="19">
         <v>1.3460000000000001</v>
       </c>
       <c r="I66" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J66" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J66" s="74"/>
       <c r="K66" s="22">
         <f t="shared" si="2"/>
         <v>1.217658766057536</v>
@@ -12950,15 +12950,15 @@
         <v>160000</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H67" s="19">
         <v>5.4858000000000002</v>
       </c>
       <c r="I67" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J67" s="77">
+        <v>50</v>
+      </c>
+      <c r="J67" s="74">
         <f>H67/H68</f>
         <v>1.0041367696588082</v>
       </c>
@@ -12976,15 +12976,15 @@
         <v>160000</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H68" s="19">
         <v>5.4631999999999996</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J68" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J68" s="74"/>
       <c r="K68" s="22">
         <f t="shared" si="2"/>
         <v>0.9958802727040722</v>
@@ -13002,15 +13002,15 @@
         <v>1000000</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H69" s="19">
         <v>7.6825999999999999</v>
       </c>
       <c r="I69" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J69" s="77">
+        <v>50</v>
+      </c>
+      <c r="J69" s="74">
         <f>H69/H70</f>
         <v>0.89059167207641654</v>
       </c>
@@ -13028,15 +13028,15 @@
         <v>1000000</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H70" s="19">
         <v>8.6264000000000003</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J70" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J70" s="74"/>
       <c r="K70" s="22">
         <f t="shared" si="2"/>
         <v>1.1228490354827794</v>
@@ -13054,15 +13054,15 @@
         <v>1000000</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H71" s="19">
         <v>41.24</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J71" s="77">
+        <v>50</v>
+      </c>
+      <c r="J71" s="74">
         <f>H71/H72</f>
         <v>0.75700282682917874</v>
       </c>
@@ -13080,15 +13080,15 @@
         <v>1000000</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H72" s="19">
         <v>54.478000000000002</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J72" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J72" s="74"/>
       <c r="K72" s="22">
         <f t="shared" si="2"/>
         <v>1.3209990300678953</v>
@@ -13106,15 +13106,15 @@
         <v>4000000</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H73" s="19">
         <v>28.648299999999999</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J73" s="77">
+        <v>50</v>
+      </c>
+      <c r="J73" s="74">
         <f>H73/H74</f>
         <v>0.92564153349615674</v>
       </c>
@@ -13132,15 +13132,15 @@
         <v>4000000</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H74" s="19">
         <v>30.949670000000001</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J74" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J74" s="74"/>
       <c r="K74" s="22">
         <f t="shared" si="2"/>
         <v>1.0803318172457006</v>
@@ -13158,15 +13158,15 @@
         <v>4000000</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H75" s="19">
         <v>192.685</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="J75" s="77">
+        <v>50</v>
+      </c>
+      <c r="J75" s="74">
         <f>H75/H76</f>
         <v>0.69248876909254264</v>
       </c>
@@ -13184,15 +13184,15 @@
         <v>4000000</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H76" s="19">
         <v>278.25</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J76" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="J76" s="74"/>
       <c r="K76" s="22">
         <f t="shared" si="2"/>
         <v>1.444066741054052</v>
@@ -13212,7 +13212,7 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
@@ -13226,71 +13226,71 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
       <c r="E81" s="25"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="74"/>
-      <c r="I81" s="74"/>
-      <c r="J81" s="74"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="82"/>
+      <c r="H81" s="82"/>
+      <c r="I81" s="82"/>
+      <c r="J81" s="82"/>
       <c r="K81" s="24"/>
     </row>
     <row r="82" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
-      <c r="E82" s="75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G82" s="75" t="s">
+      <c r="E82" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="J82" s="80" t="s">
         <v>55</v>
-      </c>
-      <c r="H82" s="75" t="s">
-        <v>48</v>
-      </c>
-      <c r="I82" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="J82" s="75" t="s">
-        <v>56</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="24">
         <v>2000</v>
       </c>
       <c r="D83" s="24"/>
-      <c r="E83" s="76"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="76"/>
-      <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="76"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="81"/>
       <c r="K83" s="24"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="24">
         <v>2000</v>
       </c>
       <c r="D84" s="24"/>
       <c r="E84" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G84" s="27">
         <v>12</v>
@@ -13311,17 +13311,17 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85" s="24">
         <v>100</v>
       </c>
       <c r="D85" s="24"/>
       <c r="E85" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" s="27">
         <v>10</v>
@@ -13342,17 +13342,17 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C86" s="24">
         <v>0.25</v>
       </c>
       <c r="D86" s="24"/>
       <c r="E86" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G86" s="27">
         <v>8</v>
@@ -13373,17 +13373,17 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" s="24">
         <v>2500</v>
       </c>
       <c r="D87" s="24"/>
       <c r="E87" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" s="27">
         <v>6</v>
@@ -13407,10 +13407,10 @@
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G88" s="27">
         <v>4</v>
@@ -13434,10 +13434,10 @@
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
       <c r="E89" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89" s="27">
         <v>2</v>
@@ -13461,10 +13461,10 @@
       <c r="C90" s="24"/>
       <c r="D90" s="24"/>
       <c r="E90" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G90" s="32">
         <v>1</v>
@@ -13488,10 +13488,10 @@
       <c r="C91" s="24"/>
       <c r="D91" s="24"/>
       <c r="E91" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G91" s="27">
         <v>12</v>
@@ -13515,10 +13515,10 @@
       <c r="C92" s="24"/>
       <c r="D92" s="24"/>
       <c r="E92" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G92" s="27">
         <v>11</v>
@@ -13542,10 +13542,10 @@
       <c r="C93" s="24"/>
       <c r="D93" s="24"/>
       <c r="E93" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G93" s="27">
         <v>10</v>
@@ -13569,10 +13569,10 @@
       <c r="C94" s="24"/>
       <c r="D94" s="24"/>
       <c r="E94" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G94" s="27">
         <v>9</v>
@@ -13596,10 +13596,10 @@
       <c r="C95" s="24"/>
       <c r="D95" s="24"/>
       <c r="E95" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G95" s="27">
         <v>8</v>
@@ -13623,10 +13623,10 @@
       <c r="C96" s="24"/>
       <c r="D96" s="24"/>
       <c r="E96" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G96" s="27">
         <v>7</v>
@@ -13650,10 +13650,10 @@
       <c r="C97" s="24"/>
       <c r="D97" s="24"/>
       <c r="E97" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G97" s="27">
         <v>6</v>
@@ -13677,10 +13677,10 @@
       <c r="C98" s="24"/>
       <c r="D98" s="24"/>
       <c r="E98" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G98" s="27">
         <v>5</v>
@@ -13704,10 +13704,10 @@
       <c r="C99" s="24"/>
       <c r="D99" s="24"/>
       <c r="E99" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G99" s="27">
         <v>4</v>
@@ -13731,10 +13731,10 @@
       <c r="C100" s="24"/>
       <c r="D100" s="24"/>
       <c r="E100" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G100" s="27">
         <v>3</v>
@@ -13758,10 +13758,10 @@
       <c r="C101" s="24"/>
       <c r="D101" s="24"/>
       <c r="E101" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G101" s="27">
         <v>2</v>
@@ -13785,10 +13785,10 @@
       <c r="C102" s="24"/>
       <c r="D102" s="24"/>
       <c r="E102" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G102" s="32">
         <v>1</v>
@@ -13821,12 +13821,12 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C106" s="39"/>
       <c r="D106" s="39"/>
-      <c r="E106" s="72"/>
-      <c r="F106" s="72"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
       <c r="G106" s="39"/>
       <c r="H106" s="39"/>
       <c r="I106" s="39"/>
@@ -13837,7 +13837,7 @@
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
@@ -13855,34 +13855,34 @@
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
-      <c r="E108" s="70" t="s">
+      <c r="E108" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="F108" s="70" t="s">
+      <c r="G108" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="G108" s="73" t="s">
+      <c r="H108" s="86"/>
+      <c r="I108" s="86"/>
+      <c r="J108" s="86"/>
+      <c r="K108" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="H108" s="73"/>
-      <c r="I108" s="73"/>
-      <c r="J108" s="73"/>
-      <c r="K108" s="70" t="s">
+      <c r="L108" s="84" t="s">
         <v>63</v>
-      </c>
-      <c r="L108" s="70" t="s">
-        <v>64</v>
       </c>
       <c r="M108" s="39"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B109" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109" s="39"/>
       <c r="D109" s="39"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="71"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="85"/>
       <c r="G109" s="42">
         <v>1</v>
       </c>
@@ -13893,25 +13893,25 @@
         <v>3</v>
       </c>
       <c r="J109" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K109" s="71"/>
-      <c r="L109" s="71"/>
+        <v>13</v>
+      </c>
+      <c r="K109" s="85"/>
+      <c r="L109" s="85"/>
       <c r="M109" s="39"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B110" s="39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C110" s="39">
         <v>100</v>
       </c>
       <c r="D110" s="39"/>
-      <c r="E110" s="69">
+      <c r="E110" s="87">
         <v>100</v>
       </c>
       <c r="F110" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G110" s="39">
         <v>0.76300000000000001</v>
@@ -13926,7 +13926,7 @@
         <f>AVERAGE(G110:I110)</f>
         <v>0.64999999999999991</v>
       </c>
-      <c r="K110" s="69">
+      <c r="K110" s="87">
         <f>J110/J111</f>
         <v>0.5861136158701532</v>
       </c>
@@ -13943,15 +13943,15 @@
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B111" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" s="39">
         <v>0.25</v>
       </c>
       <c r="D111" s="39"/>
-      <c r="E111" s="69"/>
+      <c r="E111" s="87"/>
       <c r="F111" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G111" s="39">
         <v>1.167</v>
@@ -13966,7 +13966,7 @@
         <f t="shared" ref="J111:J149" si="5">AVERAGE(G111:I111)</f>
         <v>1.109</v>
       </c>
-      <c r="K111" s="69"/>
+      <c r="K111" s="87"/>
       <c r="L111" s="39">
         <f t="shared" ref="L111:L149" si="6">STDEV(G111:I111)</f>
         <v>5.0229473419497427E-2</v>
@@ -13976,17 +13976,17 @@
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B112" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" s="39">
         <v>2500</v>
       </c>
       <c r="D112" s="39"/>
-      <c r="E112" s="69">
+      <c r="E112" s="87">
         <v>200</v>
       </c>
       <c r="F112" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G112" s="39">
         <v>0.69699999999999995</v>
@@ -14001,7 +14001,7 @@
         <f t="shared" si="5"/>
         <v>0.68400000000000005</v>
       </c>
-      <c r="K112" s="69">
+      <c r="K112" s="87">
         <f t="shared" ref="K112" si="7">J112/J113</f>
         <v>0.60282021151586374</v>
       </c>
@@ -14018,15 +14018,15 @@
     </row>
     <row r="113" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B113" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C113" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D113" s="39"/>
-      <c r="E113" s="69"/>
+      <c r="E113" s="87"/>
       <c r="F113" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G113" s="39">
         <v>1.206</v>
@@ -14041,7 +14041,7 @@
         <f t="shared" si="5"/>
         <v>1.1346666666666667</v>
       </c>
-      <c r="K113" s="69"/>
+      <c r="K113" s="87"/>
       <c r="L113" s="39">
         <f t="shared" si="6"/>
         <v>6.1849279165834457E-2</v>
@@ -14053,11 +14053,11 @@
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
-      <c r="E114" s="69">
+      <c r="E114" s="87">
         <v>300</v>
       </c>
       <c r="F114" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G114" s="39">
         <v>1.081</v>
@@ -14072,7 +14072,7 @@
         <f t="shared" si="5"/>
         <v>0.97866666666666668</v>
       </c>
-      <c r="K114" s="69">
+      <c r="K114" s="87">
         <f t="shared" ref="K114" si="8">J114/J115</f>
         <v>0.74821610601427113</v>
       </c>
@@ -14091,9 +14091,9 @@
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
-      <c r="E115" s="69"/>
+      <c r="E115" s="87"/>
       <c r="F115" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G115" s="39">
         <v>1.33</v>
@@ -14108,7 +14108,7 @@
         <f t="shared" si="5"/>
         <v>1.3080000000000001</v>
       </c>
-      <c r="K115" s="69"/>
+      <c r="K115" s="87"/>
       <c r="L115" s="39">
         <f t="shared" si="6"/>
         <v>2.0297783130184457E-2</v>
@@ -14120,11 +14120,11 @@
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
-      <c r="E116" s="69">
+      <c r="E116" s="87">
         <v>400</v>
       </c>
       <c r="F116" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G116" s="41">
         <v>1.599</v>
@@ -14139,7 +14139,7 @@
         <f t="shared" si="5"/>
         <v>1.3323333333333334</v>
       </c>
-      <c r="K116" s="69">
+      <c r="K116" s="87">
         <f t="shared" ref="K116" si="9">J116/J117</f>
         <v>0.79669124975084715</v>
       </c>
@@ -14158,9 +14158,9 @@
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
       <c r="D117" s="39"/>
-      <c r="E117" s="69"/>
+      <c r="E117" s="87"/>
       <c r="F117" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G117" s="39">
         <v>1.728</v>
@@ -14175,7 +14175,7 @@
         <f t="shared" si="5"/>
         <v>1.6723333333333332</v>
       </c>
-      <c r="K117" s="69"/>
+      <c r="K117" s="87"/>
       <c r="L117" s="39">
         <f t="shared" si="6"/>
         <v>4.9338963642676321E-2</v>
@@ -14187,11 +14187,11 @@
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
-      <c r="E118" s="69">
+      <c r="E118" s="87">
         <v>500</v>
       </c>
       <c r="F118" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G118" s="39">
         <v>2.1259999999999999</v>
@@ -14206,7 +14206,7 @@
         <f t="shared" si="5"/>
         <v>2.0066666666666668</v>
       </c>
-      <c r="K118" s="69">
+      <c r="K118" s="87">
         <f t="shared" ref="K118" si="10">J118/J119</f>
         <v>0.91782283884738536</v>
       </c>
@@ -14225,9 +14225,9 @@
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
-      <c r="E119" s="69"/>
+      <c r="E119" s="87"/>
       <c r="F119" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G119" s="39">
         <v>2.21</v>
@@ -14242,7 +14242,7 @@
         <f t="shared" si="5"/>
         <v>2.1863333333333332</v>
       </c>
-      <c r="K119" s="69"/>
+      <c r="K119" s="87"/>
       <c r="L119" s="39">
         <f t="shared" si="6"/>
         <v>2.0550750189064396E-2</v>
@@ -14260,11 +14260,11 @@
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
-      <c r="E120" s="69">
+      <c r="E120" s="87">
         <v>600</v>
       </c>
       <c r="F120" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G120" s="39">
         <v>2.5859999999999999</v>
@@ -14279,7 +14279,7 @@
         <f t="shared" si="5"/>
         <v>2.5756666666666668</v>
       </c>
-      <c r="K120" s="69">
+      <c r="K120" s="87">
         <f t="shared" ref="K120" si="11">J120/J121</f>
         <v>0.92042882668254922</v>
       </c>
@@ -14304,9 +14304,9 @@
       <c r="B121" s="39"/>
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
-      <c r="E121" s="69"/>
+      <c r="E121" s="87"/>
       <c r="F121" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G121" s="39">
         <v>2.871</v>
@@ -14321,7 +14321,7 @@
         <f t="shared" si="5"/>
         <v>2.7983333333333333</v>
       </c>
-      <c r="K121" s="69"/>
+      <c r="K121" s="87"/>
       <c r="L121" s="39">
         <f t="shared" si="6"/>
         <v>6.406507108661734E-2</v>
@@ -14335,11 +14335,11 @@
       <c r="B122" s="39"/>
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
-      <c r="E122" s="69">
+      <c r="E122" s="87">
         <v>700</v>
       </c>
       <c r="F122" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G122" s="39">
         <v>4.0449999999999999</v>
@@ -14354,7 +14354,7 @@
         <f t="shared" si="5"/>
         <v>3.8866666666666667</v>
       </c>
-      <c r="K122" s="69">
+      <c r="K122" s="87">
         <f t="shared" ref="K122" si="12">J122/J123</f>
         <v>1.1037485800833018</v>
       </c>
@@ -14373,9 +14373,9 @@
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
-      <c r="E123" s="69"/>
+      <c r="E123" s="87"/>
       <c r="F123" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G123" s="39">
         <v>3.6030000000000002</v>
@@ -14390,7 +14390,7 @@
         <f t="shared" si="5"/>
         <v>3.5213333333333332</v>
       </c>
-      <c r="K123" s="69"/>
+      <c r="K123" s="87"/>
       <c r="L123" s="39">
         <f t="shared" si="6"/>
         <v>7.0868422681285598E-2</v>
@@ -14402,11 +14402,11 @@
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
-      <c r="E124" s="69">
+      <c r="E124" s="87">
         <v>800</v>
       </c>
       <c r="F124" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G124" s="39">
         <v>4.0119999999999996</v>
@@ -14421,7 +14421,7 @@
         <f t="shared" si="5"/>
         <v>3.9439999999999995</v>
       </c>
-      <c r="K124" s="69">
+      <c r="K124" s="87">
         <f t="shared" ref="K124" si="13">J124/J125</f>
         <v>0.91913306921463533</v>
       </c>
@@ -14447,9 +14447,9 @@
       <c r="B125" s="39"/>
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
-      <c r="E125" s="69"/>
+      <c r="E125" s="87"/>
       <c r="F125" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G125" s="39">
         <v>4.3310000000000004</v>
@@ -14464,7 +14464,7 @@
         <f t="shared" si="5"/>
         <v>4.2909999999999995</v>
       </c>
-      <c r="K125" s="69"/>
+      <c r="K125" s="87"/>
       <c r="L125" s="39">
         <f t="shared" si="6"/>
         <v>3.7363083384539163E-2</v>
@@ -14483,11 +14483,11 @@
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
-      <c r="E126" s="69">
+      <c r="E126" s="87">
         <v>900</v>
       </c>
       <c r="F126" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G126" s="39">
         <v>5.4740000000000002</v>
@@ -14502,7 +14502,7 @@
         <f t="shared" si="5"/>
         <v>5.4259999999999993</v>
       </c>
-      <c r="K126" s="69">
+      <c r="K126" s="87">
         <f t="shared" ref="K126" si="15">J126/J127</f>
         <v>1.0354303161376501</v>
       </c>
@@ -14528,9 +14528,9 @@
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
-      <c r="E127" s="69"/>
+      <c r="E127" s="87"/>
       <c r="F127" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G127" s="39">
         <v>5.2850000000000001</v>
@@ -14545,7 +14545,7 @@
         <f t="shared" si="5"/>
         <v>5.2403333333333331</v>
       </c>
-      <c r="K127" s="69"/>
+      <c r="K127" s="87"/>
       <c r="L127" s="39">
         <f t="shared" si="6"/>
         <v>4.2665364563464508E-2</v>
@@ -14564,11 +14564,11 @@
       <c r="B128" s="39"/>
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
-      <c r="E128" s="69">
+      <c r="E128" s="87">
         <v>1000</v>
       </c>
       <c r="F128" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G128" s="39">
         <v>6.5389999999999997</v>
@@ -14583,7 +14583,7 @@
         <f t="shared" si="5"/>
         <v>6.3833333333333329</v>
       </c>
-      <c r="K128" s="69">
+      <c r="K128" s="87">
         <f t="shared" ref="K128" si="16">J128/J129</f>
         <v>1.0197018104366344</v>
       </c>
@@ -14609,9 +14609,9 @@
       <c r="B129" s="39"/>
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
-      <c r="E129" s="69"/>
+      <c r="E129" s="87"/>
       <c r="F129" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G129" s="39">
         <v>6.3230000000000004</v>
@@ -14626,7 +14626,7 @@
         <f t="shared" si="5"/>
         <v>6.2600000000000007</v>
       </c>
-      <c r="K129" s="69"/>
+      <c r="K129" s="87"/>
       <c r="L129" s="39">
         <f t="shared" si="6"/>
         <v>5.5217750769114386E-2</v>
@@ -14645,11 +14645,11 @@
       <c r="B130" s="39"/>
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
-      <c r="E130" s="69">
+      <c r="E130" s="87">
         <v>1100</v>
       </c>
       <c r="F130" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G130" s="39">
         <v>7.3879999999999999</v>
@@ -14664,7 +14664,7 @@
         <f t="shared" si="5"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="K130" s="69">
+      <c r="K130" s="87">
         <f t="shared" ref="K130" si="17">J130/J131</f>
         <v>1.0000900982070455</v>
       </c>
@@ -14690,9 +14690,9 @@
       <c r="B131" s="39"/>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
-      <c r="E131" s="69"/>
+      <c r="E131" s="87"/>
       <c r="F131" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G131" s="39">
         <v>7.4640000000000004</v>
@@ -14707,7 +14707,7 @@
         <f t="shared" si="5"/>
         <v>7.3993333333333338</v>
       </c>
-      <c r="K131" s="69"/>
+      <c r="K131" s="87"/>
       <c r="L131" s="39">
         <f t="shared" si="6"/>
         <v>5.7274194305405556E-2</v>
@@ -14726,11 +14726,11 @@
       <c r="B132" s="39"/>
       <c r="C132" s="39"/>
       <c r="D132" s="39"/>
-      <c r="E132" s="69">
+      <c r="E132" s="87">
         <v>1200</v>
       </c>
       <c r="F132" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G132" s="39">
         <v>8.5299999999999994</v>
@@ -14745,7 +14745,7 @@
         <f t="shared" si="5"/>
         <v>8.2396666666666665</v>
       </c>
-      <c r="K132" s="69">
+      <c r="K132" s="87">
         <f t="shared" ref="K132" si="18">J132/J133</f>
         <v>0.95680278691697307</v>
       </c>
@@ -14771,9 +14771,9 @@
       <c r="B133" s="39"/>
       <c r="C133" s="39"/>
       <c r="D133" s="39"/>
-      <c r="E133" s="69"/>
+      <c r="E133" s="87"/>
       <c r="F133" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G133" s="39">
         <v>8.6620000000000008</v>
@@ -14788,7 +14788,7 @@
         <f t="shared" si="5"/>
         <v>8.6116666666666664</v>
       </c>
-      <c r="K133" s="69"/>
+      <c r="K133" s="87"/>
       <c r="L133" s="39">
         <f t="shared" si="6"/>
         <v>4.5081407845511991E-2</v>
@@ -14807,11 +14807,11 @@
       <c r="B134" s="39"/>
       <c r="C134" s="39"/>
       <c r="D134" s="39"/>
-      <c r="E134" s="69">
+      <c r="E134" s="87">
         <v>1300</v>
       </c>
       <c r="F134" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G134" s="39">
         <v>10.401</v>
@@ -14826,7 +14826,7 @@
         <f t="shared" si="5"/>
         <v>10.694666666666668</v>
       </c>
-      <c r="K134" s="69">
+      <c r="K134" s="87">
         <f t="shared" ref="K134" si="19">J134/J135</f>
         <v>1.069787602947551</v>
       </c>
@@ -14852,9 +14852,9 @@
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
-      <c r="E135" s="69"/>
+      <c r="E135" s="87"/>
       <c r="F135" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G135" s="39">
         <v>10.079000000000001</v>
@@ -14869,7 +14869,7 @@
         <f t="shared" si="5"/>
         <v>9.9969999999999999</v>
       </c>
-      <c r="K135" s="69"/>
+      <c r="K135" s="87"/>
       <c r="L135" s="39">
         <f t="shared" si="6"/>
         <v>7.5624070242219038E-2</v>
@@ -14892,7 +14892,7 @@
         <v>1400</v>
       </c>
       <c r="F136" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G136" s="39">
         <v>11.266999999999999</v>
@@ -14907,7 +14907,7 @@
         <f>AVERAGE(G136:I136)</f>
         <v>11.202333333333334</v>
       </c>
-      <c r="K136" s="69">
+      <c r="K136" s="87">
         <f t="shared" ref="K136" si="20">J136/J137</f>
         <v>0.98191433413194651</v>
       </c>
@@ -14935,7 +14935,7 @@
       <c r="D137" s="39"/>
       <c r="E137" s="40"/>
       <c r="F137" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G137" s="39">
         <v>11.497999999999999</v>
@@ -14950,7 +14950,7 @@
         <f>AVERAGE(G137:I137)</f>
         <v>11.408666666666667</v>
       </c>
-      <c r="K137" s="69"/>
+      <c r="K137" s="87"/>
       <c r="L137" s="39">
         <f>STDEV(G137:I137)</f>
         <v>7.8805668154855929E-2</v>
@@ -14973,7 +14973,7 @@
         <v>1500</v>
       </c>
       <c r="F138" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G138" s="39">
         <v>13.766999999999999</v>
@@ -14988,7 +14988,7 @@
         <f t="shared" si="5"/>
         <v>13.765000000000001</v>
       </c>
-      <c r="K138" s="69">
+      <c r="K138" s="87">
         <f t="shared" ref="K138" si="21">J138/J139</f>
         <v>1.0601781725758004</v>
       </c>
@@ -15016,7 +15016,7 @@
       <c r="D139" s="39"/>
       <c r="E139" s="40"/>
       <c r="F139" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G139" s="39">
         <v>12.999000000000001</v>
@@ -15031,7 +15031,7 @@
         <f t="shared" si="5"/>
         <v>12.983666666666666</v>
       </c>
-      <c r="K139" s="69"/>
+      <c r="K139" s="87"/>
       <c r="L139" s="39">
         <f t="shared" si="6"/>
         <v>2.6558112382723448E-2</v>
@@ -15055,7 +15055,7 @@
         <v>1600</v>
       </c>
       <c r="F140" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G140" s="39">
         <v>13.955</v>
@@ -15070,7 +15070,7 @@
         <f t="shared" si="5"/>
         <v>14.059666666666667</v>
       </c>
-      <c r="K140" s="69">
+      <c r="K140" s="87">
         <f t="shared" ref="K140" si="22">J140/J141</f>
         <v>0.96497369023106838</v>
       </c>
@@ -15099,7 +15099,7 @@
       <c r="D141" s="39"/>
       <c r="E141" s="40"/>
       <c r="F141" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G141" s="39">
         <v>14.518000000000001</v>
@@ -15114,7 +15114,7 @@
         <f t="shared" si="5"/>
         <v>14.57</v>
       </c>
-      <c r="K141" s="69"/>
+      <c r="K141" s="87"/>
       <c r="L141" s="39">
         <f t="shared" si="6"/>
         <v>5.7035076926396609E-2</v>
@@ -15138,7 +15138,7 @@
         <v>1700</v>
       </c>
       <c r="F142" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G142" s="39">
         <v>18.196999999999999</v>
@@ -15153,7 +15153,7 @@
         <f t="shared" si="5"/>
         <v>18.042333333333332</v>
       </c>
-      <c r="K142" s="69">
+      <c r="K142" s="87">
         <f t="shared" ref="K142" si="23">J142/J143</f>
         <v>1.1029444727457971</v>
       </c>
@@ -15182,7 +15182,7 @@
       <c r="D143" s="39"/>
       <c r="E143" s="40"/>
       <c r="F143" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G143" s="39">
         <v>16.356000000000002</v>
@@ -15197,7 +15197,7 @@
         <f t="shared" si="5"/>
         <v>16.358333333333334</v>
       </c>
-      <c r="K143" s="69"/>
+      <c r="K143" s="87"/>
       <c r="L143" s="39">
         <f t="shared" si="6"/>
         <v>3.2562759915788109E-2</v>
@@ -15221,7 +15221,7 @@
         <v>1800</v>
       </c>
       <c r="F144" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G144" s="39">
         <v>17.253</v>
@@ -15236,7 +15236,7 @@
         <f t="shared" si="5"/>
         <v>17.265333333333334</v>
       </c>
-      <c r="K144" s="69">
+      <c r="K144" s="87">
         <f t="shared" ref="K144" si="24">J144/J145</f>
         <v>0.948731568824984</v>
       </c>
@@ -15260,7 +15260,7 @@
       <c r="D145" s="39"/>
       <c r="E145" s="40"/>
       <c r="F145" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G145" s="39">
         <v>18.186</v>
@@ -15275,7 +15275,7 @@
         <f t="shared" si="5"/>
         <v>18.198333333333334</v>
       </c>
-      <c r="K145" s="69"/>
+      <c r="K145" s="87"/>
       <c r="L145" s="39">
         <f t="shared" si="6"/>
         <v>4.4792112400883016E-2</v>
@@ -15292,7 +15292,7 @@
         <v>1900</v>
       </c>
       <c r="F146" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G146" s="39">
         <v>21.623999999999999</v>
@@ -15307,7 +15307,7 @@
         <f t="shared" si="5"/>
         <v>21.572000000000003</v>
       </c>
-      <c r="K146" s="69">
+      <c r="K146" s="87">
         <f t="shared" ref="K146" si="25">J146/J147</f>
         <v>1.0693147832983594</v>
       </c>
@@ -15329,7 +15329,7 @@
       <c r="D147" s="39"/>
       <c r="E147" s="40"/>
       <c r="F147" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G147" s="39">
         <v>20.254999999999999</v>
@@ -15344,7 +15344,7 @@
         <f t="shared" si="5"/>
         <v>20.173666666666666</v>
       </c>
-      <c r="K147" s="69"/>
+      <c r="K147" s="87"/>
       <c r="L147" s="39">
         <f t="shared" si="6"/>
         <v>7.1814576050641038E-2</v>
@@ -15361,7 +15361,7 @@
         <v>2000</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G148" s="39">
         <v>21.135000000000002</v>
@@ -15376,7 +15376,7 @@
         <f t="shared" si="5"/>
         <v>21.083000000000002</v>
       </c>
-      <c r="K148" s="69">
+      <c r="K148" s="87">
         <f t="shared" ref="K148" si="26">J148/J149</f>
         <v>0.94746539636886584</v>
       </c>
@@ -15398,7 +15398,7 @@
       <c r="D149" s="39"/>
       <c r="E149" s="40"/>
       <c r="F149" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G149" s="39">
         <v>22.306999999999999</v>
@@ -15413,7 +15413,7 @@
         <f t="shared" si="5"/>
         <v>22.251999999999999</v>
       </c>
-      <c r="K149" s="69"/>
+      <c r="K149" s="87"/>
       <c r="L149" s="39">
         <f t="shared" si="6"/>
         <v>4.85695377783225E-2</v>
@@ -15441,29 +15441,29 @@
       <c r="C151" s="39"/>
       <c r="D151" s="39"/>
       <c r="E151" s="44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F151" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G151" s="44"/>
       <c r="H151" s="44"/>
       <c r="I151" s="44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J151" s="44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K151" s="45"/>
       <c r="L151" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M151" s="45"/>
       <c r="N151" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O151" s="46" t="s">
         <v>70</v>
-      </c>
-      <c r="O151" s="46" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
@@ -15892,7 +15892,7 @@
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B165" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C165" s="51"/>
       <c r="D165" s="51"/>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B166" s="50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C166" s="51"/>
       <c r="D166" s="51"/>
@@ -15920,8 +15920,8 @@
       <c r="B167" s="51"/>
       <c r="C167" s="51"/>
       <c r="D167" s="51"/>
-      <c r="E167" s="64"/>
-      <c r="F167" s="64"/>
+      <c r="E167" s="91"/>
+      <c r="F167" s="91"/>
       <c r="G167" s="51"/>
       <c r="H167" s="51"/>
       <c r="I167" s="51"/>
@@ -15931,39 +15931,39 @@
       <c r="B168" s="51"/>
       <c r="C168" s="51"/>
       <c r="D168" s="51"/>
-      <c r="E168" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="F168" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="G168" s="65" t="s">
+      <c r="E168" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="F168" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="H168" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="H168" s="65" t="s">
+      <c r="I168" s="88" t="s">
         <v>79</v>
-      </c>
-      <c r="I168" s="65" t="s">
-        <v>80</v>
       </c>
       <c r="J168" s="51"/>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B169" s="51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C169" s="51"/>
       <c r="D169" s="51"/>
-      <c r="E169" s="66"/>
-      <c r="F169" s="68"/>
-      <c r="G169" s="66"/>
-      <c r="H169" s="66"/>
-      <c r="I169" s="66"/>
+      <c r="E169" s="89"/>
+      <c r="F169" s="93"/>
+      <c r="G169" s="89"/>
+      <c r="H169" s="89"/>
+      <c r="I169" s="89"/>
       <c r="J169" s="51"/>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B170" s="51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" s="51">
         <v>0.25</v>
@@ -15989,7 +15989,7 @@
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B171" s="51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" s="51">
         <v>25000</v>
@@ -16015,10 +16015,10 @@
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B172" s="51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C172" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D172" s="51"/>
       <c r="E172" s="51">
@@ -16272,7 +16272,7 @@
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B186" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C186" s="55"/>
       <c r="D186" s="55"/>
@@ -16286,7 +16286,7 @@
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B187" s="54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C187" s="55"/>
       <c r="D187" s="55"/>
@@ -16302,49 +16302,49 @@
       <c r="B188" s="55"/>
       <c r="C188" s="55"/>
       <c r="D188" s="55"/>
-      <c r="E188" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="F188" s="63"/>
-      <c r="G188" s="63"/>
-      <c r="H188" s="63"/>
+      <c r="E188" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="F188" s="90"/>
+      <c r="G188" s="90"/>
+      <c r="H188" s="90"/>
       <c r="I188" s="55"/>
       <c r="J188" s="55"/>
       <c r="K188" s="55"/>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B189" s="55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C189" s="55">
         <v>1500</v>
       </c>
       <c r="D189" s="55"/>
       <c r="E189" s="55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F189" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G189" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H189" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="I189" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G189" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="H189" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="I189" s="55" t="s">
+      <c r="J189" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="K189" s="57" t="s">
         <v>83</v>
-      </c>
-      <c r="J189" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="K189" s="57" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B190" s="55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C190" s="55">
         <v>1500</v>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B191" s="55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" s="55">
         <v>0.25</v>
@@ -16412,7 +16412,7 @@
     </row>
     <row r="192" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B192" s="55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C192" s="55">
         <v>2500</v>
@@ -16446,10 +16446,10 @@
     </row>
     <row r="193" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B193" s="55" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C193" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D193" s="55"/>
       <c r="E193" s="55">
@@ -16882,7 +16882,7 @@
     </row>
     <row r="210" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B210" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C210" s="49"/>
       <c r="D210" s="49"/>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="211" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B211" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C211" s="49"/>
       <c r="D211" s="49"/>
@@ -16919,56 +16919,56 @@
       <c r="C212" s="49"/>
       <c r="D212" s="49"/>
       <c r="E212" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="F212" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="F212" s="58" t="s">
+      <c r="G212" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G212" s="58" t="s">
+      <c r="H212" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="H212" s="58" t="s">
+      <c r="I212" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I212" s="58" t="s">
+      <c r="J212" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="J212" s="58" t="s">
+      <c r="K212" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="K212" s="58" t="s">
+      <c r="L212" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="L212" s="58" t="s">
+      <c r="M212" s="58" t="s">
         <v>96</v>
-      </c>
-      <c r="M212" s="58" t="s">
-        <v>97</v>
       </c>
       <c r="N212" s="49"/>
     </row>
     <row r="213" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B213" s="49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C213" s="49">
         <v>3000</v>
       </c>
       <c r="D213" s="49"/>
       <c r="E213" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F213" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="G213" s="59" t="s">
         <v>99</v>
-      </c>
-      <c r="G213" s="59" t="s">
-        <v>100</v>
       </c>
       <c r="H213" s="60">
         <v>1100</v>
       </c>
       <c r="I213" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J213" s="59">
         <v>0</v>
@@ -16986,26 +16986,26 @@
     </row>
     <row r="214" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B214" s="49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C214" s="49">
         <v>3000</v>
       </c>
       <c r="D214" s="49"/>
       <c r="E214" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F214" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="G214" s="59" t="s">
         <v>103</v>
-      </c>
-      <c r="G214" s="59" t="s">
-        <v>104</v>
       </c>
       <c r="H214" s="60">
         <v>1100</v>
       </c>
       <c r="I214" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J214" s="59">
         <v>0</v>
@@ -17023,26 +17023,26 @@
     </row>
     <row r="215" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B215" s="49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" s="49">
         <v>100</v>
       </c>
       <c r="D215" s="49"/>
       <c r="E215" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F215" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="G215" s="59" t="s">
         <v>106</v>
-      </c>
-      <c r="G215" s="59" t="s">
-        <v>107</v>
       </c>
       <c r="H215" s="59">
         <v>100</v>
       </c>
       <c r="I215" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J215" s="59">
         <v>0</v>
@@ -17060,26 +17060,26 @@
     </row>
     <row r="216" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B216" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" s="49">
         <v>0.25</v>
       </c>
       <c r="D216" s="49"/>
       <c r="E216" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F216" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G216" s="59" t="s">
         <v>109</v>
-      </c>
-      <c r="G216" s="59" t="s">
-        <v>110</v>
       </c>
       <c r="H216" s="59">
         <v>100</v>
       </c>
       <c r="I216" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J216" s="59">
         <v>0</v>
@@ -17097,26 +17097,26 @@
     </row>
     <row r="217" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B217" s="49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" s="49">
         <v>2500</v>
       </c>
       <c r="D217" s="49"/>
       <c r="E217" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F217" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G217" s="59" t="s">
         <v>112</v>
-      </c>
-      <c r="G217" s="59" t="s">
-        <v>113</v>
       </c>
       <c r="H217" s="59">
         <v>100</v>
       </c>
       <c r="I217" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J217" s="59">
         <v>0</v>
@@ -17134,26 +17134,26 @@
     </row>
     <row r="218" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B218" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C218" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D218" s="49"/>
       <c r="E218" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F218" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G218" s="59" t="s">
         <v>115</v>
-      </c>
-      <c r="G218" s="59" t="s">
-        <v>116</v>
       </c>
       <c r="H218" s="59">
         <v>400</v>
       </c>
       <c r="I218" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J218" s="59">
         <v>0</v>
@@ -17174,19 +17174,19 @@
       <c r="C219" s="49"/>
       <c r="D219" s="49"/>
       <c r="E219" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F219" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="G219" s="59" t="s">
         <v>118</v>
-      </c>
-      <c r="G219" s="59" t="s">
-        <v>119</v>
       </c>
       <c r="H219" s="59">
         <v>400</v>
       </c>
       <c r="I219" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J219" s="59">
         <v>0</v>
@@ -17207,19 +17207,19 @@
       <c r="C220" s="49"/>
       <c r="D220" s="49"/>
       <c r="E220" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F220" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G220" s="59" t="s">
         <v>121</v>
-      </c>
-      <c r="G220" s="59" t="s">
-        <v>122</v>
       </c>
       <c r="H220" s="59">
         <v>100</v>
       </c>
       <c r="I220" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J220" s="59">
         <v>0</v>
@@ -17240,19 +17240,19 @@
       <c r="C221" s="49"/>
       <c r="D221" s="49"/>
       <c r="E221" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F221" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G221" s="59" t="s">
         <v>124</v>
-      </c>
-      <c r="G221" s="59" t="s">
-        <v>125</v>
       </c>
       <c r="H221" s="59">
         <v>100</v>
       </c>
       <c r="I221" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J221" s="59">
         <v>0</v>
@@ -17273,19 +17273,19 @@
       <c r="C222" s="49"/>
       <c r="D222" s="49"/>
       <c r="E222" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F222" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="G222" s="59" t="s">
         <v>127</v>
-      </c>
-      <c r="G222" s="59" t="s">
-        <v>128</v>
       </c>
       <c r="H222" s="59">
         <v>100</v>
       </c>
       <c r="I222" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J222" s="59">
         <v>0</v>
@@ -17306,19 +17306,19 @@
       <c r="C223" s="49"/>
       <c r="D223" s="49"/>
       <c r="E223" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F223" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="G223" s="59" t="s">
         <v>130</v>
-      </c>
-      <c r="G223" s="59" t="s">
-        <v>131</v>
       </c>
       <c r="H223" s="59">
         <v>100</v>
       </c>
       <c r="I223" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J223" s="60">
         <v>0</v>
@@ -17339,19 +17339,19 @@
       <c r="C224" s="49"/>
       <c r="D224" s="49"/>
       <c r="E224" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F224" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="G224" s="59" t="s">
         <v>133</v>
-      </c>
-      <c r="G224" s="59" t="s">
-        <v>134</v>
       </c>
       <c r="H224" s="59">
         <v>100</v>
       </c>
       <c r="I224" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J224" s="59">
         <v>0</v>
@@ -17372,19 +17372,19 @@
       <c r="C225" s="49"/>
       <c r="D225" s="49"/>
       <c r="E225" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F225" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="G225" s="59" t="s">
         <v>136</v>
-      </c>
-      <c r="G225" s="59" t="s">
-        <v>137</v>
       </c>
       <c r="H225" s="59">
         <v>1</v>
       </c>
       <c r="I225" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J225" s="60">
         <v>0</v>
@@ -17405,19 +17405,19 @@
       <c r="C226" s="49"/>
       <c r="D226" s="49"/>
       <c r="E226" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F226" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="G226" s="59" t="s">
         <v>139</v>
-      </c>
-      <c r="G226" s="59" t="s">
-        <v>140</v>
       </c>
       <c r="H226" s="60">
         <v>1100</v>
       </c>
       <c r="I226" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J226" s="59">
         <v>0</v>
@@ -17438,19 +17438,19 @@
       <c r="C227" s="49"/>
       <c r="D227" s="49"/>
       <c r="E227" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F227" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="G227" s="59" t="s">
         <v>142</v>
-      </c>
-      <c r="G227" s="59" t="s">
-        <v>143</v>
       </c>
       <c r="H227" s="59">
         <v>400</v>
       </c>
       <c r="I227" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J227" s="60">
         <v>0</v>
@@ -17471,19 +17471,19 @@
       <c r="C228" s="49"/>
       <c r="D228" s="49"/>
       <c r="E228" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F228" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="G228" s="59" t="s">
         <v>145</v>
-      </c>
-      <c r="G228" s="59" t="s">
-        <v>146</v>
       </c>
       <c r="H228" s="59">
         <v>400</v>
       </c>
       <c r="I228" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J228" s="59">
         <v>0</v>
@@ -17498,7 +17498,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="N228" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="229" spans="2:14" x14ac:dyDescent="0.2">
@@ -17506,19 +17506,19 @@
       <c r="C229" s="49"/>
       <c r="D229" s="49"/>
       <c r="E229" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F229" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="G229" s="59" t="s">
         <v>148</v>
-      </c>
-      <c r="G229" s="59" t="s">
-        <v>149</v>
       </c>
       <c r="H229" s="60">
         <v>1100</v>
       </c>
       <c r="I229" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J229" s="60">
         <v>0</v>
@@ -17539,10 +17539,10 @@
       <c r="C230" s="49"/>
       <c r="D230" s="49"/>
       <c r="E230" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F230" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G230" s="59"/>
       <c r="H230" s="59"/>
@@ -17579,19 +17579,19 @@
       <c r="C232" s="49"/>
       <c r="D232" s="49"/>
       <c r="E232" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F232" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="F232" s="62" t="s">
+      <c r="G232" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G232" s="62" t="s">
+      <c r="H232" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I232" s="62" t="s">
         <v>154</v>
-      </c>
-      <c r="H232" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="I232" s="62" t="s">
-        <v>155</v>
       </c>
       <c r="J232" s="49"/>
       <c r="K232" s="49"/>
@@ -17604,19 +17604,19 @@
       <c r="C233" s="49"/>
       <c r="D233" s="49"/>
       <c r="E233" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F233" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G233" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H233" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F233" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G233" s="49" t="s">
+      <c r="I233" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="H233" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="I233" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="J233" s="49"/>
       <c r="K233" s="49"/>
@@ -17629,19 +17629,19 @@
       <c r="C234" s="49"/>
       <c r="D234" s="49"/>
       <c r="E234" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="F234" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G234" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H234" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="F234" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G234" s="49" t="s">
+      <c r="I234" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="H234" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="I234" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="J234" s="49"/>
       <c r="K234" s="49"/>
@@ -17654,19 +17654,19 @@
       <c r="C235" s="49"/>
       <c r="D235" s="49"/>
       <c r="E235" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F235" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G235" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H235" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F235" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G235" s="49" t="s">
+      <c r="I235" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="H235" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="I235" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="J235" s="49"/>
       <c r="K235" s="49"/>
@@ -17679,19 +17679,19 @@
       <c r="C236" s="49"/>
       <c r="D236" s="49"/>
       <c r="E236" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F236" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G236" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H236" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="F236" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G236" s="49" t="s">
+      <c r="I236" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="H236" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I236" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="J236" s="49"/>
       <c r="K236" s="49"/>
@@ -17704,19 +17704,19 @@
       <c r="C237" s="49"/>
       <c r="D237" s="49"/>
       <c r="E237" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F237" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G237" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H237" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="F237" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G237" s="49" t="s">
+      <c r="I237" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="H237" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="I237" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="J237" s="49"/>
       <c r="K237" s="49"/>
@@ -17729,19 +17729,19 @@
       <c r="C238" s="49"/>
       <c r="D238" s="49"/>
       <c r="E238" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="F238" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G238" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H238" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="F238" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G238" s="49" t="s">
+      <c r="I238" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="H238" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="I238" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="J238" s="49"/>
       <c r="K238" s="49"/>
@@ -17754,19 +17754,19 @@
       <c r="C239" s="49"/>
       <c r="D239" s="49"/>
       <c r="E239" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="F239" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G239" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H239" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="F239" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G239" s="49" t="s">
+      <c r="I239" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="H239" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="I239" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="J239" s="49"/>
       <c r="K239" s="49"/>
@@ -17779,19 +17779,19 @@
       <c r="C240" s="49"/>
       <c r="D240" s="49"/>
       <c r="E240" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F240" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G240" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H240" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="F240" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G240" s="49" t="s">
+      <c r="I240" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="H240" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="I240" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="J240" s="49"/>
       <c r="K240" s="49"/>
@@ -17804,19 +17804,19 @@
       <c r="C241" s="49"/>
       <c r="D241" s="49"/>
       <c r="E241" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F241" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="G241" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="H241" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="F241" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="G241" s="49" t="s">
+      <c r="I241" s="49" t="s">
         <v>157</v>
-      </c>
-      <c r="H241" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="I241" s="49" t="s">
-        <v>158</v>
       </c>
       <c r="J241" s="49"/>
       <c r="K241" s="49"/>
@@ -17829,19 +17829,19 @@
       <c r="C242" s="49"/>
       <c r="D242" s="49"/>
       <c r="E242" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F242" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="G242" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H242" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="F242" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="G242" s="49" t="s">
+      <c r="I242" s="49" t="s">
         <v>160</v>
-      </c>
-      <c r="H242" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="I242" s="49" t="s">
-        <v>161</v>
       </c>
       <c r="J242" s="49"/>
       <c r="K242" s="49"/>
@@ -17854,19 +17854,19 @@
       <c r="C243" s="49"/>
       <c r="D243" s="49"/>
       <c r="E243" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F243" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="G243" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H243" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="F243" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="G243" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="H243" s="49" t="s">
-        <v>103</v>
-      </c>
       <c r="I243" s="49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J243" s="49"/>
       <c r="K243" s="49"/>
@@ -17879,7 +17879,7 @@
       <c r="C244" s="49"/>
       <c r="D244" s="49"/>
       <c r="E244" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F244" s="49">
         <v>3000</v>
@@ -17888,10 +17888,10 @@
         <v>120</v>
       </c>
       <c r="H244" s="49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I244" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J244" s="49"/>
       <c r="K244" s="49"/>
@@ -17904,7 +17904,7 @@
       <c r="C245" s="49"/>
       <c r="D245" s="49"/>
       <c r="E245" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F245" s="49">
         <v>3000</v>
@@ -17913,10 +17913,10 @@
         <v>120</v>
       </c>
       <c r="H245" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I245" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J245" s="49"/>
       <c r="K245" s="49"/>
@@ -17929,7 +17929,7 @@
       <c r="C246" s="49"/>
       <c r="D246" s="49"/>
       <c r="E246" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F246" s="49">
         <v>3000</v>
@@ -17938,13 +17938,13 @@
         <v>120</v>
       </c>
       <c r="H246" s="49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I246" s="49" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J246" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K246" s="49"/>
       <c r="L246" s="49"/>
@@ -17956,7 +17956,7 @@
       <c r="C247" s="49"/>
       <c r="D247" s="49"/>
       <c r="E247" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F247" s="49">
         <v>3000</v>
@@ -17965,10 +17965,10 @@
         <v>120</v>
       </c>
       <c r="H247" s="49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I247" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J247" s="49"/>
       <c r="K247" s="49"/>
@@ -17981,19 +17981,19 @@
       <c r="C248" s="49"/>
       <c r="D248" s="49"/>
       <c r="E248" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F248" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G248" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="H248" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="F248" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G248" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="H248" s="49" t="s">
-        <v>115</v>
-      </c>
       <c r="I248" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J248" s="49"/>
       <c r="K248" s="49"/>
@@ -18006,19 +18006,19 @@
       <c r="C249" s="49"/>
       <c r="D249" s="49"/>
       <c r="E249" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="F249" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="G249" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="H249" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="F249" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="G249" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="H249" s="49" t="s">
-        <v>99</v>
-      </c>
       <c r="I249" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J249" s="49"/>
       <c r="K249" s="49"/>
@@ -18031,12 +18031,12 @@
       <c r="C250" s="49"/>
       <c r="D250" s="49"/>
       <c r="E250" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F250" s="49"/>
       <c r="G250" s="49"/>
       <c r="H250" s="49" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I250" s="49"/>
       <c r="J250" s="49"/>
@@ -18062,65 +18062,19 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J63:J64"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="E106:F106"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G108:J108"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="K120:K121"/>
-    <mergeCell ref="K108:K109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="E188:H188"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:F169"/>
+    <mergeCell ref="G168:G169"/>
+    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="I168:I169"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="K142:K143"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="K146:K147"/>
+    <mergeCell ref="K148:K149"/>
     <mergeCell ref="K136:K137"/>
     <mergeCell ref="K122:K123"/>
     <mergeCell ref="E124:E125"/>
@@ -18136,19 +18090,65 @@
     <mergeCell ref="K132:K133"/>
     <mergeCell ref="E134:E135"/>
     <mergeCell ref="K134:K135"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="K142:K143"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="K146:K147"/>
-    <mergeCell ref="K148:K149"/>
-    <mergeCell ref="E188:H188"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:F169"/>
-    <mergeCell ref="G168:G169"/>
-    <mergeCell ref="H168:H169"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="K108:K109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G108:J108"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J75:J76"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:K10"/>
   </mergeCells>
   <conditionalFormatting sqref="K37:K44">
     <cfRule type="colorScale" priority="25">

--- a/PrivateSamples/TestingData.xlsx
+++ b/PrivateSamples/TestingData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanaeljenkins/Documents/Personal/NathanaelJ.github.io/PrivateSamples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanaeljenkins/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310F5EF4-357E-DD44-9536-DE0081B0A66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB05A34-B46C-8A42-A4D2-AE121DAF423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26240" xr2:uid="{93C42E23-E6D1-2F4A-B312-CFA696BE8C10}"/>
   </bookViews>
@@ -315,9 +315,6 @@
     <t>nx = ny</t>
   </si>
   <si>
-    <t># Cores available</t>
-  </si>
-  <si>
     <t>Utilisation</t>
   </si>
   <si>
@@ -696,9 +693,6 @@
     <t>derxx sub</t>
   </si>
   <si>
-    <t>deryy sub</t>
-  </si>
-  <si>
     <t>deriy sub</t>
   </si>
   <si>
@@ -709,6 +703,12 @@
   </si>
   <si>
     <t>UROP Testing Data (Summarised)</t>
+  </si>
+  <si>
+    <t># Threads</t>
+  </si>
+  <si>
+    <t>deryy sub*</t>
   </si>
 </sst>
 </file>
@@ -2801,7 +2801,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Number of cores</a:t>
+                  <a:t>Number of threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5843,7 +5843,7 @@
                   <c:v>derxx sub</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>deryy sub</c:v>
+                  <c:v>deryy sub*</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>deriy sub</c:v>
@@ -5998,7 +5998,7 @@
                   <c:v>derxx sub</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>deryy sub</c:v>
+                  <c:v>deryy sub*</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>deriy sub</c:v>
@@ -6153,7 +6153,7 @@
                   <c:v>derxx sub</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>deryy sub</c:v>
+                  <c:v>deryy sub*</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>deriy sub</c:v>
@@ -11500,15 +11500,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD98D1B-4B00-7C4F-84C0-8222810E2A43}">
   <dimension ref="B2:W251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -11541,7 +11541,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -12278,7 +12278,7 @@
         <v>10.666666666666666</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
@@ -12342,7 +12342,7 @@
         <v>1.8399999999999999</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
@@ -13212,7 +13212,7 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
@@ -13249,7 +13249,7 @@
         <v>29</v>
       </c>
       <c r="G82" s="80" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="H82" s="80" t="s">
         <v>47</v>
@@ -13258,7 +13258,7 @@
         <v>49</v>
       </c>
       <c r="J82" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K82" s="24"/>
     </row>
@@ -13491,7 +13491,7 @@
         <v>19</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G91" s="27">
         <v>12</v>
@@ -13518,7 +13518,7 @@
         <v>19</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G92" s="27">
         <v>11</v>
@@ -13545,7 +13545,7 @@
         <v>19</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G93" s="27">
         <v>10</v>
@@ -13572,7 +13572,7 @@
         <v>19</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G94" s="27">
         <v>9</v>
@@ -13599,7 +13599,7 @@
         <v>19</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G95" s="27">
         <v>8</v>
@@ -13626,7 +13626,7 @@
         <v>19</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G96" s="27">
         <v>7</v>
@@ -13653,7 +13653,7 @@
         <v>19</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G97" s="27">
         <v>6</v>
@@ -13680,7 +13680,7 @@
         <v>19</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G98" s="27">
         <v>5</v>
@@ -13707,7 +13707,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G99" s="27">
         <v>4</v>
@@ -13734,7 +13734,7 @@
         <v>19</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G100" s="27">
         <v>3</v>
@@ -13761,7 +13761,7 @@
         <v>19</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G101" s="27">
         <v>2</v>
@@ -13788,7 +13788,7 @@
         <v>19</v>
       </c>
       <c r="F102" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G102" s="32">
         <v>1</v>
@@ -13821,7 +13821,7 @@
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B106" s="48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C106" s="39"/>
       <c r="D106" s="39"/>
@@ -13837,7 +13837,7 @@
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B107" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
@@ -13856,22 +13856,22 @@
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="F108" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="F108" s="84" t="s">
+      <c r="G108" s="86" t="s">
         <v>60</v>
-      </c>
-      <c r="G108" s="86" t="s">
-        <v>61</v>
       </c>
       <c r="H108" s="86"/>
       <c r="I108" s="86"/>
       <c r="J108" s="86"/>
       <c r="K108" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="L108" s="84" t="s">
         <v>62</v>
-      </c>
-      <c r="L108" s="84" t="s">
-        <v>63</v>
       </c>
       <c r="M108" s="39"/>
     </row>
@@ -13911,7 +13911,7 @@
         <v>100</v>
       </c>
       <c r="F110" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G110" s="39">
         <v>0.76300000000000001</v>
@@ -13951,7 +13951,7 @@
       <c r="D111" s="39"/>
       <c r="E111" s="87"/>
       <c r="F111" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G111" s="39">
         <v>1.167</v>
@@ -13986,7 +13986,7 @@
         <v>200</v>
       </c>
       <c r="F112" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G112" s="39">
         <v>0.69699999999999995</v>
@@ -14026,7 +14026,7 @@
       <c r="D113" s="39"/>
       <c r="E113" s="87"/>
       <c r="F113" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G113" s="39">
         <v>1.206</v>
@@ -14057,7 +14057,7 @@
         <v>300</v>
       </c>
       <c r="F114" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G114" s="39">
         <v>1.081</v>
@@ -14093,7 +14093,7 @@
       <c r="D115" s="39"/>
       <c r="E115" s="87"/>
       <c r="F115" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G115" s="39">
         <v>1.33</v>
@@ -14124,7 +14124,7 @@
         <v>400</v>
       </c>
       <c r="F116" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G116" s="41">
         <v>1.599</v>
@@ -14160,7 +14160,7 @@
       <c r="D117" s="39"/>
       <c r="E117" s="87"/>
       <c r="F117" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G117" s="39">
         <v>1.728</v>
@@ -14191,7 +14191,7 @@
         <v>500</v>
       </c>
       <c r="F118" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G118" s="39">
         <v>2.1259999999999999</v>
@@ -14227,7 +14227,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="87"/>
       <c r="F119" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G119" s="39">
         <v>2.21</v>
@@ -14264,7 +14264,7 @@
         <v>600</v>
       </c>
       <c r="F120" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G120" s="39">
         <v>2.5859999999999999</v>
@@ -14306,7 +14306,7 @@
       <c r="D121" s="39"/>
       <c r="E121" s="87"/>
       <c r="F121" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G121" s="39">
         <v>2.871</v>
@@ -14339,7 +14339,7 @@
         <v>700</v>
       </c>
       <c r="F122" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G122" s="39">
         <v>4.0449999999999999</v>
@@ -14375,7 +14375,7 @@
       <c r="D123" s="39"/>
       <c r="E123" s="87"/>
       <c r="F123" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G123" s="39">
         <v>3.6030000000000002</v>
@@ -14406,7 +14406,7 @@
         <v>800</v>
       </c>
       <c r="F124" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G124" s="39">
         <v>4.0119999999999996</v>
@@ -14449,7 +14449,7 @@
       <c r="D125" s="39"/>
       <c r="E125" s="87"/>
       <c r="F125" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G125" s="39">
         <v>4.3310000000000004</v>
@@ -14487,7 +14487,7 @@
         <v>900</v>
       </c>
       <c r="F126" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G126" s="39">
         <v>5.4740000000000002</v>
@@ -14530,7 +14530,7 @@
       <c r="D127" s="39"/>
       <c r="E127" s="87"/>
       <c r="F127" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G127" s="39">
         <v>5.2850000000000001</v>
@@ -14568,7 +14568,7 @@
         <v>1000</v>
       </c>
       <c r="F128" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G128" s="39">
         <v>6.5389999999999997</v>
@@ -14611,7 +14611,7 @@
       <c r="D129" s="39"/>
       <c r="E129" s="87"/>
       <c r="F129" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G129" s="39">
         <v>6.3230000000000004</v>
@@ -14649,7 +14649,7 @@
         <v>1100</v>
       </c>
       <c r="F130" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G130" s="39">
         <v>7.3879999999999999</v>
@@ -14692,7 +14692,7 @@
       <c r="D131" s="39"/>
       <c r="E131" s="87"/>
       <c r="F131" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G131" s="39">
         <v>7.4640000000000004</v>
@@ -14730,7 +14730,7 @@
         <v>1200</v>
       </c>
       <c r="F132" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G132" s="39">
         <v>8.5299999999999994</v>
@@ -14773,7 +14773,7 @@
       <c r="D133" s="39"/>
       <c r="E133" s="87"/>
       <c r="F133" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G133" s="39">
         <v>8.6620000000000008</v>
@@ -14811,7 +14811,7 @@
         <v>1300</v>
       </c>
       <c r="F134" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G134" s="39">
         <v>10.401</v>
@@ -14854,7 +14854,7 @@
       <c r="D135" s="39"/>
       <c r="E135" s="87"/>
       <c r="F135" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G135" s="39">
         <v>10.079000000000001</v>
@@ -14892,7 +14892,7 @@
         <v>1400</v>
       </c>
       <c r="F136" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G136" s="39">
         <v>11.266999999999999</v>
@@ -14935,7 +14935,7 @@
       <c r="D137" s="39"/>
       <c r="E137" s="40"/>
       <c r="F137" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G137" s="39">
         <v>11.497999999999999</v>
@@ -14973,7 +14973,7 @@
         <v>1500</v>
       </c>
       <c r="F138" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G138" s="39">
         <v>13.766999999999999</v>
@@ -15016,7 +15016,7 @@
       <c r="D139" s="39"/>
       <c r="E139" s="40"/>
       <c r="F139" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G139" s="39">
         <v>12.999000000000001</v>
@@ -15055,7 +15055,7 @@
         <v>1600</v>
       </c>
       <c r="F140" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G140" s="39">
         <v>13.955</v>
@@ -15099,7 +15099,7 @@
       <c r="D141" s="39"/>
       <c r="E141" s="40"/>
       <c r="F141" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G141" s="39">
         <v>14.518000000000001</v>
@@ -15138,7 +15138,7 @@
         <v>1700</v>
       </c>
       <c r="F142" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G142" s="39">
         <v>18.196999999999999</v>
@@ -15182,7 +15182,7 @@
       <c r="D143" s="39"/>
       <c r="E143" s="40"/>
       <c r="F143" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G143" s="39">
         <v>16.356000000000002</v>
@@ -15221,7 +15221,7 @@
         <v>1800</v>
       </c>
       <c r="F144" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G144" s="39">
         <v>17.253</v>
@@ -15260,7 +15260,7 @@
       <c r="D145" s="39"/>
       <c r="E145" s="40"/>
       <c r="F145" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G145" s="39">
         <v>18.186</v>
@@ -15292,7 +15292,7 @@
         <v>1900</v>
       </c>
       <c r="F146" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G146" s="39">
         <v>21.623999999999999</v>
@@ -15329,7 +15329,7 @@
       <c r="D147" s="39"/>
       <c r="E147" s="40"/>
       <c r="F147" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G147" s="39">
         <v>20.254999999999999</v>
@@ -15361,7 +15361,7 @@
         <v>2000</v>
       </c>
       <c r="F148" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G148" s="39">
         <v>21.135000000000002</v>
@@ -15398,7 +15398,7 @@
       <c r="D149" s="39"/>
       <c r="E149" s="40"/>
       <c r="F149" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G149" s="39">
         <v>22.306999999999999</v>
@@ -15444,7 +15444,7 @@
         <v>4</v>
       </c>
       <c r="F151" s="44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G151" s="44"/>
       <c r="H151" s="44"/>
@@ -15452,18 +15452,18 @@
         <v>13</v>
       </c>
       <c r="J151" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K151" s="45"/>
       <c r="L151" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M151" s="45"/>
       <c r="N151" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="O151" s="46" t="s">
         <v>69</v>
-      </c>
-      <c r="O151" s="46" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
@@ -15892,7 +15892,7 @@
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B165" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C165" s="51"/>
       <c r="D165" s="51"/>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B166" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C166" s="51"/>
       <c r="D166" s="51"/>
@@ -15932,19 +15932,19 @@
       <c r="C168" s="51"/>
       <c r="D168" s="51"/>
       <c r="E168" s="88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F168" s="92" t="s">
         <v>7</v>
       </c>
       <c r="G168" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="H168" s="88" t="s">
+      <c r="I168" s="88" t="s">
         <v>78</v>
-      </c>
-      <c r="I168" s="88" t="s">
-        <v>79</v>
       </c>
       <c r="J168" s="51"/>
     </row>
@@ -16272,7 +16272,7 @@
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B186" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C186" s="55"/>
       <c r="D186" s="55"/>
@@ -16286,7 +16286,7 @@
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B187" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C187" s="55"/>
       <c r="D187" s="55"/>
@@ -16303,7 +16303,7 @@
       <c r="C188" s="55"/>
       <c r="D188" s="55"/>
       <c r="E188" s="90" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F188" s="90"/>
       <c r="G188" s="90"/>
@@ -16324,22 +16324,22 @@
         <v>7</v>
       </c>
       <c r="F189" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="G189" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="H189" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I189" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="G189" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="H189" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="I189" s="55" t="s">
+      <c r="J189" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="K189" s="57" t="s">
         <v>82</v>
-      </c>
-      <c r="J189" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="K189" s="57" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.2">
@@ -16882,7 +16882,7 @@
     </row>
     <row r="210" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B210" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C210" s="49"/>
       <c r="D210" s="49"/>
@@ -16899,7 +16899,7 @@
     </row>
     <row r="211" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B211" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C211" s="49"/>
       <c r="D211" s="49"/>
@@ -16919,31 +16919,31 @@
       <c r="C212" s="49"/>
       <c r="D212" s="49"/>
       <c r="E212" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="F212" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="F212" s="58" t="s">
+      <c r="G212" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="G212" s="58" t="s">
+      <c r="H212" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="H212" s="58" t="s">
+      <c r="I212" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="I212" s="58" t="s">
+      <c r="J212" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="J212" s="58" t="s">
+      <c r="K212" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="K212" s="58" t="s">
+      <c r="L212" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="L212" s="58" t="s">
+      <c r="M212" s="58" t="s">
         <v>95</v>
-      </c>
-      <c r="M212" s="58" t="s">
-        <v>96</v>
       </c>
       <c r="N212" s="49"/>
     </row>
@@ -16956,19 +16956,19 @@
       </c>
       <c r="D213" s="49"/>
       <c r="E213" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F213" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="G213" s="59" t="s">
         <v>98</v>
-      </c>
-      <c r="G213" s="59" t="s">
-        <v>99</v>
       </c>
       <c r="H213" s="60">
         <v>1100</v>
       </c>
       <c r="I213" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J213" s="59">
         <v>0</v>
@@ -16993,19 +16993,19 @@
       </c>
       <c r="D214" s="49"/>
       <c r="E214" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F214" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G214" s="59" t="s">
         <v>102</v>
-      </c>
-      <c r="G214" s="59" t="s">
-        <v>103</v>
       </c>
       <c r="H214" s="60">
         <v>1100</v>
       </c>
       <c r="I214" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J214" s="59">
         <v>0</v>
@@ -17030,19 +17030,19 @@
       </c>
       <c r="D215" s="49"/>
       <c r="E215" s="59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F215" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="G215" s="59" t="s">
         <v>105</v>
-      </c>
-      <c r="G215" s="59" t="s">
-        <v>106</v>
       </c>
       <c r="H215" s="59">
         <v>100</v>
       </c>
       <c r="I215" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J215" s="59">
         <v>0</v>
@@ -17067,19 +17067,19 @@
       </c>
       <c r="D216" s="49"/>
       <c r="E216" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F216" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G216" s="59" t="s">
         <v>108</v>
-      </c>
-      <c r="G216" s="59" t="s">
-        <v>109</v>
       </c>
       <c r="H216" s="59">
         <v>100</v>
       </c>
       <c r="I216" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J216" s="59">
         <v>0</v>
@@ -17104,19 +17104,19 @@
       </c>
       <c r="D217" s="49"/>
       <c r="E217" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F217" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="G217" s="59" t="s">
         <v>111</v>
-      </c>
-      <c r="G217" s="59" t="s">
-        <v>112</v>
       </c>
       <c r="H217" s="59">
         <v>100</v>
       </c>
       <c r="I217" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J217" s="59">
         <v>0</v>
@@ -17141,19 +17141,19 @@
       </c>
       <c r="D218" s="49"/>
       <c r="E218" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F218" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="G218" s="59" t="s">
         <v>114</v>
-      </c>
-      <c r="G218" s="59" t="s">
-        <v>115</v>
       </c>
       <c r="H218" s="59">
         <v>400</v>
       </c>
       <c r="I218" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J218" s="59">
         <v>0</v>
@@ -17174,19 +17174,19 @@
       <c r="C219" s="49"/>
       <c r="D219" s="49"/>
       <c r="E219" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F219" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="G219" s="59" t="s">
         <v>117</v>
-      </c>
-      <c r="G219" s="59" t="s">
-        <v>118</v>
       </c>
       <c r="H219" s="59">
         <v>400</v>
       </c>
       <c r="I219" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J219" s="59">
         <v>0</v>
@@ -17207,19 +17207,19 @@
       <c r="C220" s="49"/>
       <c r="D220" s="49"/>
       <c r="E220" s="59" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F220" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="G220" s="59" t="s">
         <v>120</v>
-      </c>
-      <c r="G220" s="59" t="s">
-        <v>121</v>
       </c>
       <c r="H220" s="59">
         <v>100</v>
       </c>
       <c r="I220" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J220" s="59">
         <v>0</v>
@@ -17240,19 +17240,19 @@
       <c r="C221" s="49"/>
       <c r="D221" s="49"/>
       <c r="E221" s="59" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F221" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="G221" s="59" t="s">
         <v>123</v>
-      </c>
-      <c r="G221" s="59" t="s">
-        <v>124</v>
       </c>
       <c r="H221" s="59">
         <v>100</v>
       </c>
       <c r="I221" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J221" s="59">
         <v>0</v>
@@ -17273,19 +17273,19 @@
       <c r="C222" s="49"/>
       <c r="D222" s="49"/>
       <c r="E222" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F222" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="G222" s="59" t="s">
         <v>126</v>
-      </c>
-      <c r="G222" s="59" t="s">
-        <v>127</v>
       </c>
       <c r="H222" s="59">
         <v>100</v>
       </c>
       <c r="I222" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J222" s="59">
         <v>0</v>
@@ -17306,19 +17306,19 @@
       <c r="C223" s="49"/>
       <c r="D223" s="49"/>
       <c r="E223" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F223" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="G223" s="59" t="s">
         <v>129</v>
-      </c>
-      <c r="G223" s="59" t="s">
-        <v>130</v>
       </c>
       <c r="H223" s="59">
         <v>100</v>
       </c>
       <c r="I223" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J223" s="60">
         <v>0</v>
@@ -17339,19 +17339,19 @@
       <c r="C224" s="49"/>
       <c r="D224" s="49"/>
       <c r="E224" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F224" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G224" s="59" t="s">
         <v>132</v>
-      </c>
-      <c r="G224" s="59" t="s">
-        <v>133</v>
       </c>
       <c r="H224" s="59">
         <v>100</v>
       </c>
       <c r="I224" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J224" s="59">
         <v>0</v>
@@ -17372,19 +17372,19 @@
       <c r="C225" s="49"/>
       <c r="D225" s="49"/>
       <c r="E225" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F225" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="G225" s="59" t="s">
         <v>135</v>
-      </c>
-      <c r="G225" s="59" t="s">
-        <v>136</v>
       </c>
       <c r="H225" s="59">
         <v>1</v>
       </c>
       <c r="I225" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J225" s="60">
         <v>0</v>
@@ -17405,19 +17405,19 @@
       <c r="C226" s="49"/>
       <c r="D226" s="49"/>
       <c r="E226" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F226" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="G226" s="59" t="s">
         <v>138</v>
-      </c>
-      <c r="G226" s="59" t="s">
-        <v>139</v>
       </c>
       <c r="H226" s="60">
         <v>1100</v>
       </c>
       <c r="I226" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J226" s="59">
         <v>0</v>
@@ -17438,19 +17438,19 @@
       <c r="C227" s="49"/>
       <c r="D227" s="49"/>
       <c r="E227" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F227" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="G227" s="59" t="s">
         <v>141</v>
-      </c>
-      <c r="G227" s="59" t="s">
-        <v>142</v>
       </c>
       <c r="H227" s="59">
         <v>400</v>
       </c>
       <c r="I227" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J227" s="60">
         <v>0</v>
@@ -17471,19 +17471,19 @@
       <c r="C228" s="49"/>
       <c r="D228" s="49"/>
       <c r="E228" s="59" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F228" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G228" s="59" t="s">
         <v>144</v>
-      </c>
-      <c r="G228" s="59" t="s">
-        <v>145</v>
       </c>
       <c r="H228" s="59">
         <v>400</v>
       </c>
       <c r="I228" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J228" s="59">
         <v>0</v>
@@ -17498,7 +17498,7 @@
         <v>0.80900000000000005</v>
       </c>
       <c r="N228" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="229" spans="2:14" x14ac:dyDescent="0.2">
@@ -17506,19 +17506,19 @@
       <c r="C229" s="49"/>
       <c r="D229" s="49"/>
       <c r="E229" s="59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F229" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="G229" s="59" t="s">
         <v>147</v>
-      </c>
-      <c r="G229" s="59" t="s">
-        <v>148</v>
       </c>
       <c r="H229" s="60">
         <v>1100</v>
       </c>
       <c r="I229" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J229" s="60">
         <v>0</v>
@@ -17539,10 +17539,10 @@
       <c r="C230" s="49"/>
       <c r="D230" s="49"/>
       <c r="E230" s="59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F230" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G230" s="59"/>
       <c r="H230" s="59"/>
@@ -17579,19 +17579,19 @@
       <c r="C232" s="49"/>
       <c r="D232" s="49"/>
       <c r="E232" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F232" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="F232" s="62" t="s">
+      <c r="G232" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G232" s="62" t="s">
+      <c r="H232" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I232" s="62" t="s">
         <v>153</v>
-      </c>
-      <c r="H232" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I232" s="62" t="s">
-        <v>154</v>
       </c>
       <c r="J232" s="49"/>
       <c r="K232" s="49"/>
@@ -17604,19 +17604,19 @@
       <c r="C233" s="49"/>
       <c r="D233" s="49"/>
       <c r="E233" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F233" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G233" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H233" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="F233" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G233" s="49" t="s">
+      <c r="I233" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="H233" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="I233" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="J233" s="49"/>
       <c r="K233" s="49"/>
@@ -17629,19 +17629,19 @@
       <c r="C234" s="49"/>
       <c r="D234" s="49"/>
       <c r="E234" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="F234" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G234" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H234" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="F234" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G234" s="49" t="s">
+      <c r="I234" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="H234" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="I234" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="J234" s="49"/>
       <c r="K234" s="49"/>
@@ -17654,19 +17654,19 @@
       <c r="C235" s="49"/>
       <c r="D235" s="49"/>
       <c r="E235" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F235" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G235" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H235" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F235" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G235" s="49" t="s">
+      <c r="I235" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="H235" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="I235" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="J235" s="49"/>
       <c r="K235" s="49"/>
@@ -17679,19 +17679,19 @@
       <c r="C236" s="49"/>
       <c r="D236" s="49"/>
       <c r="E236" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="F236" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G236" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H236" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="F236" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G236" s="49" t="s">
+      <c r="I236" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="H236" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="I236" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="J236" s="49"/>
       <c r="K236" s="49"/>
@@ -17704,19 +17704,19 @@
       <c r="C237" s="49"/>
       <c r="D237" s="49"/>
       <c r="E237" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F237" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G237" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H237" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F237" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G237" s="49" t="s">
+      <c r="I237" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="H237" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="I237" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="J237" s="49"/>
       <c r="K237" s="49"/>
@@ -17729,19 +17729,19 @@
       <c r="C238" s="49"/>
       <c r="D238" s="49"/>
       <c r="E238" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F238" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G238" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H238" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="F238" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G238" s="49" t="s">
+      <c r="I238" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="H238" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="I238" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="J238" s="49"/>
       <c r="K238" s="49"/>
@@ -17754,19 +17754,19 @@
       <c r="C239" s="49"/>
       <c r="D239" s="49"/>
       <c r="E239" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F239" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G239" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H239" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="F239" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G239" s="49" t="s">
+      <c r="I239" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="H239" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="I239" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="J239" s="49"/>
       <c r="K239" s="49"/>
@@ -17779,19 +17779,19 @@
       <c r="C240" s="49"/>
       <c r="D240" s="49"/>
       <c r="E240" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F240" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G240" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H240" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="F240" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G240" s="49" t="s">
+      <c r="I240" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="H240" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="I240" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="J240" s="49"/>
       <c r="K240" s="49"/>
@@ -17804,19 +17804,19 @@
       <c r="C241" s="49"/>
       <c r="D241" s="49"/>
       <c r="E241" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="F241" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G241" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="H241" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F241" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="G241" s="49" t="s">
+      <c r="I241" s="49" t="s">
         <v>156</v>
-      </c>
-      <c r="H241" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="I241" s="49" t="s">
-        <v>157</v>
       </c>
       <c r="J241" s="49"/>
       <c r="K241" s="49"/>
@@ -17829,19 +17829,19 @@
       <c r="C242" s="49"/>
       <c r="D242" s="49"/>
       <c r="E242" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F242" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G242" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H242" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="F242" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="G242" s="49" t="s">
+      <c r="I242" s="49" t="s">
         <v>159</v>
-      </c>
-      <c r="H242" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="I242" s="49" t="s">
-        <v>160</v>
       </c>
       <c r="J242" s="49"/>
       <c r="K242" s="49"/>
@@ -17854,19 +17854,19 @@
       <c r="C243" s="49"/>
       <c r="D243" s="49"/>
       <c r="E243" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F243" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="G243" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H243" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="F243" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="G243" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="H243" s="49" t="s">
-        <v>102</v>
-      </c>
       <c r="I243" s="49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J243" s="49"/>
       <c r="K243" s="49"/>
@@ -17879,7 +17879,7 @@
       <c r="C244" s="49"/>
       <c r="D244" s="49"/>
       <c r="E244" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F244" s="49">
         <v>3000</v>
@@ -17888,10 +17888,10 @@
         <v>120</v>
       </c>
       <c r="H244" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I244" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J244" s="49"/>
       <c r="K244" s="49"/>
@@ -17904,7 +17904,7 @@
       <c r="C245" s="49"/>
       <c r="D245" s="49"/>
       <c r="E245" s="49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F245" s="49">
         <v>3000</v>
@@ -17913,10 +17913,10 @@
         <v>120</v>
       </c>
       <c r="H245" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I245" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J245" s="49"/>
       <c r="K245" s="49"/>
@@ -17929,7 +17929,7 @@
       <c r="C246" s="49"/>
       <c r="D246" s="49"/>
       <c r="E246" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F246" s="49">
         <v>3000</v>
@@ -17938,13 +17938,13 @@
         <v>120</v>
       </c>
       <c r="H246" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I246" s="49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J246" s="49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K246" s="49"/>
       <c r="L246" s="49"/>
@@ -17956,7 +17956,7 @@
       <c r="C247" s="49"/>
       <c r="D247" s="49"/>
       <c r="E247" s="49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F247" s="49">
         <v>3000</v>
@@ -17965,10 +17965,10 @@
         <v>120</v>
       </c>
       <c r="H247" s="49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I247" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J247" s="49"/>
       <c r="K247" s="49"/>
@@ -17981,19 +17981,19 @@
       <c r="C248" s="49"/>
       <c r="D248" s="49"/>
       <c r="E248" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F248" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G248" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H248" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F248" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="G248" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="H248" s="49" t="s">
-        <v>114</v>
-      </c>
       <c r="I248" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J248" s="49"/>
       <c r="K248" s="49"/>
@@ -18006,19 +18006,19 @@
       <c r="C249" s="49"/>
       <c r="D249" s="49"/>
       <c r="E249" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F249" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="G249" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="H249" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F249" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="G249" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="H249" s="49" t="s">
-        <v>98</v>
-      </c>
       <c r="I249" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J249" s="49"/>
       <c r="K249" s="49"/>
@@ -18031,12 +18031,12 @@
       <c r="C250" s="49"/>
       <c r="D250" s="49"/>
       <c r="E250" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F250" s="49"/>
       <c r="G250" s="49"/>
       <c r="H250" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I250" s="49"/>
       <c r="J250" s="49"/>
